--- a/Projects/MARSRU_PROD/Data/2020/KPIs for DB - MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020/KPIs for DB - MARS KPIs.xlsx
@@ -8,10 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="94">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -38,6 +39,27 @@
   </si>
   <si>
     <t xml:space="preserve">MARS KPIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Секц лаком д/кош прим к корм д/кош и лаком д/соб к корм д/соб. Допуск разм между влаж и сух</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFECT FIT вз.кош чувст инд 24*85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheba Плежер куриц и кролик 24*85г [Кол-во горизонтальных фэйсов на основной полке]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]</t>
   </si>
   <si>
     <t xml:space="preserve">Выберите тип ДМП</t>
@@ -398,18 +420,18 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="124.326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="131.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.8061224489796"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,60 +445,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>10011</v>
+        <v>5070</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>10011</v>
+        <v>5070</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>10012</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>10012</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>10014</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>10014</v>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>10013</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>10013</v>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -495,26 +517,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="218.010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="131.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.8061224489796"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -526,106 +546,64 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1010</v>
+        <v>10011</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1010</v>
+        <v>10011</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1011</v>
+        <v>10012</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1011</v>
+        <v>10012</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1013</v>
+        <v>10014</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1013</v>
+        <v>10014</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1012</v>
+        <v>10013</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1012</v>
+        <v>10013</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1014</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1014</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1015</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1016</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -638,26 +616,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="218.010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="229.954081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.49489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -669,13 +647,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4259</v>
+        <v>1010</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>4259</v>
+        <v>1010</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -683,13 +661,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4200</v>
+        <v>1011</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4200</v>
+        <v>1011</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -697,13 +675,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>4260</v>
+        <v>1013</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4260</v>
+        <v>1013</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -711,13 +689,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4269</v>
+        <v>1012</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4269</v>
+        <v>1012</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -725,13 +703,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4270</v>
+        <v>1014</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4270</v>
+        <v>1014</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -739,13 +717,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4271</v>
+        <v>1015</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4271</v>
+        <v>1015</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -753,254 +731,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4272</v>
+        <v>1016</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4272</v>
+        <v>1016</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>4358</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>4358</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>4388</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>4388</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>4389</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>4389</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>4636</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>4636</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>4669</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>4669</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>4670</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>4670</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>4671</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>4671</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>4672</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>4672</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>4673</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>4673</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>4674</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>4674</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>4675</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>4675</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>4647</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>4647</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>4648</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>4648</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>4649</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>4649</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>4650</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>4650</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>4651</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>4651</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>4704</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>4704</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1019,6 +759,387 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="229.954081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.49489795918367"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>4259</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>4259</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>4200</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>4200</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4260</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>4260</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4269</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4269</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>4270</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>4271</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4271</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>4272</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>4272</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>4358</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4358</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>4388</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>4388</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>4389</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>4389</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>4636</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>4636</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>4669</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>4669</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>4670</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4670</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>4671</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4671</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>4672</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>4673</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>4673</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>4674</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4674</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>4675</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>4675</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>4647</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>4647</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>4648</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4648</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>4649</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>4649</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>4650</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>4650</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>4651</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4651</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>4704</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4704</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1027,11 +1148,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="218.010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="229.954081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.49489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,7 +1180,7 @@
         <v>4264</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1194,7 @@
         <v>4351</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,7 +1208,7 @@
         <v>4783</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1222,7 @@
         <v>4784</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1236,7 @@
         <v>4785</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,7 +1250,7 @@
         <v>4268</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1264,7 @@
         <v>4273</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,7 +1278,7 @@
         <v>4274</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +1292,7 @@
         <v>4276</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1306,7 @@
         <v>4282</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1320,7 @@
         <v>4284</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1334,7 @@
         <v>4285</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1348,7 @@
         <v>4275</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1362,7 @@
         <v>4277</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1376,7 @@
         <v>4283</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1390,7 @@
         <v>4510</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1404,7 @@
         <v>4511</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1418,7 @@
         <v>4254</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1432,7 @@
         <v>4513</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,7 +1446,7 @@
         <v>4514</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1460,7 @@
         <v>4317</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1474,7 @@
         <v>4261</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,7 +1488,7 @@
         <v>4262</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,7 +1502,7 @@
         <v>4263</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1516,7 @@
         <v>4265</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +1530,7 @@
         <v>4266</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,7 +1544,7 @@
         <v>4255</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,7 +1558,7 @@
         <v>4148</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,7 +1572,7 @@
         <v>4149</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1586,7 @@
         <v>4150</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,7 +1600,7 @@
         <v>4267</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1614,7 @@
         <v>4305</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1628,7 @@
         <v>4306</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1642,7 @@
         <v>4191</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1656,7 @@
         <v>4688</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1670,7 @@
         <v>4256</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1684,7 @@
         <v>4219</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +1698,7 @@
         <v>4307</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,7 +1712,7 @@
         <v>4315</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,7 +1726,7 @@
         <v>4318</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,7 +1740,7 @@
         <v>4512</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,7 +1754,7 @@
         <v>4515</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,7 +1768,7 @@
         <v>4316</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1782,7 @@
         <v>90001</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1796,7 @@
         <v>90002</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1810,7 @@
         <v>90003</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,7 +1824,7 @@
         <v>2537</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1838,7 @@
         <v>2527</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,7 +1852,7 @@
         <v>4310</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1866,7 @@
         <v>4330</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,7 +1880,7 @@
         <v>4630</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1894,7 @@
         <v>4631</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MARSRU_PROD/Data/2020/KPIs for DB - MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020/KPIs for DB - MARS KPIs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -37,25 +37,13 @@
     <t xml:space="preserve">MARS KPIs</t>
   </si>
   <si>
-    <t xml:space="preserve">Секц лаком д/кош прим к корм д/кош и лаком д/соб к корм д/соб. Допуск разм между влаж и сух</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERFECT FIT вз.кош чувст инд 24*85г [Кол-во горизонтальных фэйсов на основной полке]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheba Плежер куриц и кролик 24*85г [Кол-во горизонтальных фэйсов на основной полке]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]</t>
+    <t xml:space="preserve">Влаж.корма Марс внутри выкладки в порядке: Whs - Shb Min Pch - Prf Fit - Shb Pch -Nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сум.лин.разм. влаж.однопорц.корм. CesarPch на 100% &gt; люб.бренда в суп.прем.влаж.корм.собак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виск апп. микс гов/ягн 24*85г  - [Кол-во горизонтальных фэйсов на основной полке]</t>
   </si>
 </sst>
 </file>
@@ -130,7 +118,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -139,8 +127,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -160,17 +152,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="17.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="138.229591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="145.862244897959"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -192,12 +183,12 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>5070</v>
+        <v>6048</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5070</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -205,42 +196,28 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2" t="n">
+        <v>6049</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>6049</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="2" t="n">
+        <v>5036</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5036</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
